--- a/Src/Results_insertion/output_insertion_high_[2, 1]_0.xlsx
+++ b/Src/Results_insertion/output_insertion_high_[2, 1]_0.xlsx
@@ -883,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.001238584518432617</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.0009899139404296875</v>
       </c>
     </row>
     <row r="11">
@@ -977,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01563644409179688</v>
+        <v>0.02717375755310059</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01523113250732422</v>
+        <v>0.002861261367797852</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01057076454162598</v>
+        <v>0.01743292808532715</v>
       </c>
     </row>
     <row r="14">
@@ -1118,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07421088218688965</v>
+        <v>0.123436450958252</v>
       </c>
     </row>
     <row r="15">
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.003000974655151367</v>
       </c>
     </row>
     <row r="16">
@@ -1212,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003991365432739258</v>
+        <v>0.006684064865112305</v>
       </c>
     </row>
     <row r="17">
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03557920455932617</v>
+        <v>0.04587340354919434</v>
       </c>
     </row>
     <row r="18">
@@ -1306,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.002004146575927734</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0333259105682373</v>
+        <v>0.02090883255004883</v>
       </c>
     </row>
     <row r="20">
@@ -1400,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001048803329467773</v>
+        <v>0.0009725093841552734</v>
       </c>
     </row>
     <row r="21">
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02374029159545898</v>
+        <v>0.01871132850646973</v>
       </c>
     </row>
     <row r="22">
@@ -1494,7 +1494,7 @@
         <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.001993656158447266</v>
       </c>
     </row>
     <row r="23">
@@ -1541,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01505565643310547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.0009891986846923828</v>
       </c>
     </row>
     <row r="25">
@@ -1635,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01571846008300781</v>
+        <v>0.007002830505371094</v>
       </c>
     </row>
     <row r="26">
@@ -1682,7 +1682,7 @@
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04192352294921875</v>
+        <v>0.06189751625061035</v>
       </c>
     </row>
     <row r="27">
@@ -1729,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.002984762191772461</v>
       </c>
     </row>
     <row r="28">
@@ -1870,7 +1870,7 @@
         <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>0.001009702682495117</v>
+        <v>0.0030059814453125</v>
       </c>
     </row>
     <row r="31">
@@ -1917,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>0.03301405906677246</v>
+        <v>0.0363919734954834</v>
       </c>
     </row>
     <row r="32">
@@ -2011,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.0009946823120117188</v>
       </c>
     </row>
     <row r="34">
@@ -2058,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>0.09039545059204102</v>
+        <v>0.05583310127258301</v>
       </c>
     </row>
     <row r="35">
@@ -2105,7 +2105,7 @@
         <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>0.01558661460876465</v>
+        <v>0.02160072326660156</v>
       </c>
     </row>
     <row r="36">
@@ -2152,7 +2152,7 @@
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.0008256435394287109</v>
       </c>
     </row>
     <row r="37">
@@ -2199,7 +2199,7 @@
         <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>0.07028031349182129</v>
+        <v>0.08654332160949707</v>
       </c>
     </row>
     <row r="38">
@@ -2246,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="O38" t="n">
-        <v>0.05172514915466309</v>
+        <v>0.04495835304260254</v>
       </c>
     </row>
     <row r="39">
@@ -2293,7 +2293,7 @@
         <v>16</v>
       </c>
       <c r="O39" t="n">
-        <v>0.05805563926696777</v>
+        <v>0.06683254241943359</v>
       </c>
     </row>
     <row r="40">
@@ -2340,7 +2340,7 @@
         <v>16</v>
       </c>
       <c r="O40" t="n">
-        <v>0.04150032997131348</v>
+        <v>0.04353547096252441</v>
       </c>
     </row>
     <row r="41">
@@ -2387,7 +2387,7 @@
         <v>15</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.01604652404785156</v>
       </c>
     </row>
     <row r="42">
@@ -2434,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="O42" t="n">
-        <v>0.01565742492675781</v>
+        <v>0.02392148971557617</v>
       </c>
     </row>
     <row r="43">
@@ -2481,7 +2481,7 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>0.008550643920898438</v>
+        <v>0.0176842212677002</v>
       </c>
     </row>
     <row r="44">
@@ -2528,7 +2528,7 @@
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>0.03334379196166992</v>
+        <v>0.03731489181518555</v>
       </c>
     </row>
     <row r="45">
@@ -2575,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>0.01573801040649414</v>
+        <v>0.002000331878662109</v>
       </c>
     </row>
     <row r="46">
@@ -2622,7 +2622,7 @@
         <v>15</v>
       </c>
       <c r="O46" t="n">
-        <v>0.04332089424133301</v>
+        <v>0.03380107879638672</v>
       </c>
     </row>
     <row r="47">
@@ -2669,7 +2669,7 @@
         <v>16</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0128324031829834</v>
+        <v>0.002107381820678711</v>
       </c>
     </row>
     <row r="48">
@@ -2716,7 +2716,7 @@
         <v>17</v>
       </c>
       <c r="O48" t="n">
-        <v>0.01120948791503906</v>
+        <v>0.01739501953125</v>
       </c>
     </row>
     <row r="49">
@@ -2763,7 +2763,7 @@
         <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>0.005023479461669922</v>
+        <v>0.01351213455200195</v>
       </c>
     </row>
     <row r="50">
@@ -2810,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>0.00199127197265625</v>
       </c>
     </row>
     <row r="51">
@@ -2857,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01669096946716309</v>
+        <v>0.006040573120117188</v>
       </c>
     </row>
     <row r="52">
@@ -2904,7 +2904,7 @@
         <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.002001285552978516</v>
       </c>
     </row>
     <row r="53">
@@ -2951,7 +2951,7 @@
         <v>14</v>
       </c>
       <c r="O53" t="n">
-        <v>0.00301051139831543</v>
+        <v>0.01565098762512207</v>
       </c>
     </row>
     <row r="54">
@@ -2998,7 +2998,7 @@
         <v>14</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>0.002007961273193359</v>
       </c>
     </row>
     <row r="55">
@@ -3045,7 +3045,7 @@
         <v>14</v>
       </c>
       <c r="O55" t="n">
-        <v>0.03164362907409668</v>
+        <v>0.04849100112915039</v>
       </c>
     </row>
     <row r="56">
@@ -3139,7 +3139,7 @@
         <v>13</v>
       </c>
       <c r="O57" t="n">
-        <v>0.02293252944946289</v>
+        <v>0.02603363990783691</v>
       </c>
     </row>
     <row r="58">
@@ -3186,7 +3186,7 @@
         <v>14</v>
       </c>
       <c r="O58" t="n">
-        <v>0.01951694488525391</v>
+        <v>0.01462340354919434</v>
       </c>
     </row>
     <row r="59">
@@ -3280,7 +3280,7 @@
         <v>15</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0369718074798584</v>
+        <v>0.0492253303527832</v>
       </c>
     </row>
     <row r="61">
@@ -3374,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>0.006050348281860352</v>
       </c>
     </row>
     <row r="63">
@@ -3421,7 +3421,7 @@
         <v>14</v>
       </c>
       <c r="O63" t="n">
-        <v>0.05077981948852539</v>
+        <v>0.07803916931152344</v>
       </c>
     </row>
     <row r="64">
@@ -3468,7 +3468,7 @@
         <v>14</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0330510139465332</v>
+        <v>0.06633329391479492</v>
       </c>
     </row>
     <row r="65">
@@ -3515,7 +3515,7 @@
         <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>0.4858145713806152</v>
+        <v>0.4735481739044189</v>
       </c>
     </row>
     <row r="66">
@@ -3562,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="O66" t="n">
-        <v>0.01577448844909668</v>
+        <v>0.01341080665588379</v>
       </c>
     </row>
     <row r="67">
@@ -3609,7 +3609,7 @@
         <v>16</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>0.003023862838745117</v>
       </c>
     </row>
     <row r="68">
@@ -3656,7 +3656,7 @@
         <v>16</v>
       </c>
       <c r="O68" t="n">
-        <v>0.01009702682495117</v>
+        <v>0.001993656158447266</v>
       </c>
     </row>
     <row r="69">
@@ -3703,7 +3703,7 @@
         <v>15</v>
       </c>
       <c r="O69" t="n">
-        <v>0.07051372528076172</v>
+        <v>0.05604648590087891</v>
       </c>
     </row>
     <row r="70">
@@ -3750,7 +3750,7 @@
         <v>13</v>
       </c>
       <c r="O70" t="n">
-        <v>0.05114316940307617</v>
+        <v>0.04452061653137207</v>
       </c>
     </row>
     <row r="71">
@@ -3797,7 +3797,7 @@
         <v>15</v>
       </c>
       <c r="O71" t="n">
-        <v>12.46258902549744</v>
+        <v>16.38140368461609</v>
       </c>
     </row>
     <row r="72">
@@ -3844,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>164.4396743774414</v>
+        <v>186.1293351650238</v>
       </c>
     </row>
     <row r="73">
@@ -3891,7 +3891,7 @@
         <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>0.01323676109313965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3938,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>0.001004219055175781</v>
       </c>
     </row>
     <row r="75">
@@ -3985,7 +3985,7 @@
         <v>10</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.002202749252319336</v>
       </c>
     </row>
     <row r="76">
@@ -4079,7 +4079,7 @@
         <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>0.006605148315429688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -4173,7 +4173,7 @@
         <v>13</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>0.002198457717895508</v>
       </c>
     </row>
     <row r="80">
@@ -4220,7 +4220,7 @@
         <v>14</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>0.00198674201965332</v>
       </c>
     </row>
     <row r="81">
@@ -4267,7 +4267,7 @@
         <v>16</v>
       </c>
       <c r="O81" t="n">
-        <v>0.05216479301452637</v>
+        <v>0.0674440860748291</v>
       </c>
     </row>
     <row r="82">
@@ -4314,7 +4314,7 @@
         <v>17</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0008730888366699219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4361,7 +4361,7 @@
         <v>18</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>0.002001762390136719</v>
       </c>
     </row>
     <row r="84">
@@ -4408,7 +4408,7 @@
         <v>20</v>
       </c>
       <c r="O84" t="n">
-        <v>0.3397431373596191</v>
+        <v>0.5386946201324463</v>
       </c>
     </row>
     <row r="85">
@@ -4455,7 +4455,7 @@
         <v>21</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>0.00502324104309082</v>
       </c>
     </row>
     <row r="86">
@@ -4502,7 +4502,7 @@
         <v>21</v>
       </c>
       <c r="O86" t="n">
-        <v>0.002012968063354492</v>
+        <v>0.00593876838684082</v>
       </c>
     </row>
     <row r="87">
@@ -4549,7 +4549,7 @@
         <v>21</v>
       </c>
       <c r="O87" t="n">
-        <v>0.06520938873291016</v>
+        <v>0.1505951881408691</v>
       </c>
     </row>
     <row r="88">
@@ -4596,7 +4596,7 @@
         <v>21</v>
       </c>
       <c r="O88" t="n">
-        <v>0.04076671600341797</v>
+        <v>0.1274991035461426</v>
       </c>
     </row>
     <row r="89">
@@ -4643,7 +4643,7 @@
         <v>20</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>0.004006147384643555</v>
       </c>
     </row>
     <row r="90">
@@ -4690,7 +4690,7 @@
         <v>21</v>
       </c>
       <c r="O90" t="n">
-        <v>0.2594795227050781</v>
+        <v>0.419173002243042</v>
       </c>
     </row>
     <row r="91">
@@ -4737,7 +4737,7 @@
         <v>20</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04532051086425781</v>
+        <v>0.06857752799987793</v>
       </c>
     </row>
     <row r="92">
@@ -4784,7 +4784,7 @@
         <v>20</v>
       </c>
       <c r="O92" t="n">
-        <v>0.03439545631408691</v>
+        <v>0.06133031845092773</v>
       </c>
     </row>
     <row r="93">
@@ -4831,7 +4831,7 @@
         <v>21</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>0.01563596725463867</v>
       </c>
     </row>
     <row r="94">
@@ -4878,7 +4878,7 @@
         <v>18</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>0.003249406814575195</v>
       </c>
     </row>
     <row r="95">
@@ -4925,7 +4925,7 @@
         <v>19</v>
       </c>
       <c r="O95" t="n">
-        <v>0.01663827896118164</v>
+        <v>0.0103905200958252</v>
       </c>
     </row>
     <row r="96">
@@ -4972,7 +4972,7 @@
         <v>19</v>
       </c>
       <c r="O96" t="n">
-        <v>2.184267520904541</v>
+        <v>2.70869255065918</v>
       </c>
     </row>
     <row r="97">
@@ -5019,7 +5019,7 @@
         <v>20</v>
       </c>
       <c r="O97" t="n">
-        <v>0.01640415191650391</v>
+        <v>0.0217583179473877</v>
       </c>
     </row>
     <row r="98">
@@ -5066,7 +5066,7 @@
         <v>20</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05721449851989746</v>
+        <v>0.06321144104003906</v>
       </c>
     </row>
     <row r="99">
@@ -5113,7 +5113,7 @@
         <v>20</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0311431884765625</v>
+        <v>0.05058979988098145</v>
       </c>
     </row>
     <row r="100">
@@ -5160,7 +5160,7 @@
         <v>19</v>
       </c>
       <c r="O100" t="n">
-        <v>0.04925417900085449</v>
+        <v>0.0568697452545166</v>
       </c>
     </row>
     <row r="101">
@@ -5207,7 +5207,7 @@
         <v>19</v>
       </c>
       <c r="O101" t="n">
-        <v>0.04531669616699219</v>
+        <v>0.03600049018859863</v>
       </c>
     </row>
     <row r="102">
@@ -5301,7 +5301,7 @@
         <v>19</v>
       </c>
       <c r="O103" t="n">
-        <v>0.01662373542785645</v>
+        <v>0.03467202186584473</v>
       </c>
     </row>
     <row r="104">
@@ -5348,7 +5348,7 @@
         <v>19</v>
       </c>
       <c r="O104" t="n">
-        <v>1.778646469116211</v>
+        <v>2.23248291015625</v>
       </c>
     </row>
     <row r="105">
@@ -5536,7 +5536,7 @@
         <v>13</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03170585632324219</v>
+        <v>0.04092812538146973</v>
       </c>
     </row>
     <row r="109">
@@ -5583,7 +5583,7 @@
         <v>10</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>0.003993511199951172</v>
       </c>
     </row>
     <row r="110">
@@ -5630,7 +5630,7 @@
         <v>10</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0393671989440918</v>
+        <v>0.05959296226501465</v>
       </c>
     </row>
     <row r="111">
@@ -5677,7 +5677,7 @@
         <v>10</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03324007987976074</v>
+        <v>0.05014777183532715</v>
       </c>
     </row>
     <row r="112">
@@ -5724,7 +5724,7 @@
         <v>10</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03045916557312012</v>
+        <v>0.04639625549316406</v>
       </c>
     </row>
     <row r="113">
@@ -5771,7 +5771,7 @@
         <v>10</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>0.0009820461273193359</v>
       </c>
     </row>
     <row r="114">
@@ -5818,7 +5818,7 @@
         <v>10</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03281211853027344</v>
+        <v>0.04128050804138184</v>
       </c>
     </row>
     <row r="115">
@@ -5865,7 +5865,7 @@
         <v>9</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0162806510925293</v>
+        <v>0.02747178077697754</v>
       </c>
     </row>
     <row r="116">
@@ -5912,7 +5912,7 @@
         <v>10</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>0.0009164810180664062</v>
       </c>
     </row>
     <row r="117">
@@ -5959,7 +5959,7 @@
         <v>11</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>0.002113819122314453</v>
       </c>
     </row>
     <row r="118">
@@ -6006,7 +6006,7 @@
         <v>10</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>0.0009980201721191406</v>
       </c>
     </row>
     <row r="119">
@@ -6053,7 +6053,7 @@
         <v>11</v>
       </c>
       <c r="O119" t="n">
-        <v>0.01598525047302246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -6100,7 +6100,7 @@
         <v>11</v>
       </c>
       <c r="O120" t="n">
-        <v>0</v>
+        <v>0.001997232437133789</v>
       </c>
     </row>
     <row r="121">
@@ -6147,7 +6147,7 @@
         <v>11</v>
       </c>
       <c r="O121" t="n">
-        <v>0.008554935455322266</v>
+        <v>0.02913784980773926</v>
       </c>
     </row>
     <row r="122">
@@ -6194,7 +6194,7 @@
         <v>11</v>
       </c>
       <c r="O122" t="n">
-        <v>0.02629995346069336</v>
+        <v>0.03264355659484863</v>
       </c>
     </row>
     <row r="123">
@@ -6288,7 +6288,7 @@
         <v>9</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>0.00244140625</v>
       </c>
     </row>
     <row r="125">
@@ -6335,7 +6335,7 @@
         <v>10</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>0.006496191024780273</v>
       </c>
     </row>
     <row r="126">
@@ -6382,7 +6382,7 @@
         <v>11</v>
       </c>
       <c r="O126" t="n">
-        <v>0.007361650466918945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -6429,7 +6429,7 @@
         <v>12</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>0.001000642776489258</v>
       </c>
     </row>
     <row r="128">
@@ -6523,7 +6523,7 @@
         <v>8</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>0.001044034957885742</v>
       </c>
     </row>
     <row r="130">
@@ -6570,7 +6570,7 @@
         <v>8</v>
       </c>
       <c r="O130" t="n">
-        <v>0.01518893241882324</v>
+        <v>0.002027511596679688</v>
       </c>
     </row>
     <row r="131">
@@ -6617,7 +6617,7 @@
         <v>8</v>
       </c>
       <c r="O131" t="n">
-        <v>0.001008749008178711</v>
+        <v>0.0009920597076416016</v>
       </c>
     </row>
     <row r="132">
@@ -6664,7 +6664,7 @@
         <v>9</v>
       </c>
       <c r="O132" t="n">
-        <v>0.004918098449707031</v>
+        <v>0.009003639221191406</v>
       </c>
     </row>
     <row r="133">
@@ -6711,7 +6711,7 @@
         <v>10</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>0.001764297485351562</v>
       </c>
     </row>
     <row r="134">
@@ -6758,7 +6758,7 @@
         <v>9</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0008642673492431641</v>
+        <v>0.00101017951965332</v>
       </c>
     </row>
     <row r="135">
@@ -6805,7 +6805,7 @@
         <v>10</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>0.002320766448974609</v>
       </c>
     </row>
     <row r="136">
@@ -6899,7 +6899,7 @@
         <v>12</v>
       </c>
       <c r="O137" t="n">
-        <v>0.001011133193969727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -6993,7 +6993,7 @@
         <v>14</v>
       </c>
       <c r="O139" t="n">
-        <v>0.01476860046386719</v>
+        <v>0.01157760620117188</v>
       </c>
     </row>
     <row r="140">
@@ -7040,7 +7040,7 @@
         <v>14</v>
       </c>
       <c r="O140" t="n">
-        <v>0.007948398590087891</v>
+        <v>0.03242611885070801</v>
       </c>
     </row>
     <row r="141">
@@ -7087,7 +7087,7 @@
         <v>15</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>0.002999067306518555</v>
       </c>
     </row>
     <row r="142">
@@ -7134,7 +7134,7 @@
         <v>16</v>
       </c>
       <c r="O142" t="n">
-        <v>0.01542234420776367</v>
+        <v>0.05230903625488281</v>
       </c>
     </row>
     <row r="143">
@@ -7181,7 +7181,7 @@
         <v>17</v>
       </c>
       <c r="O143" t="n">
-        <v>0.001291036605834961</v>
+        <v>0.001664876937866211</v>
       </c>
     </row>
     <row r="144">
@@ -7228,7 +7228,7 @@
         <v>17</v>
       </c>
       <c r="O144" t="n">
-        <v>0.01176190376281738</v>
+        <v>0.0202934741973877</v>
       </c>
     </row>
     <row r="145">
@@ -7275,7 +7275,7 @@
         <v>18</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>0.003092765808105469</v>
       </c>
     </row>
     <row r="146">
@@ -7322,7 +7322,7 @@
         <v>15</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0159294605255127</v>
+        <v>0.002726316452026367</v>
       </c>
     </row>
     <row r="147">
@@ -7369,7 +7369,7 @@
         <v>15</v>
       </c>
       <c r="O147" t="n">
-        <v>0.07743978500366211</v>
+        <v>0.1100273132324219</v>
       </c>
     </row>
     <row r="148">
@@ -7416,7 +7416,7 @@
         <v>16</v>
       </c>
       <c r="O148" t="n">
-        <v>0.02335190773010254</v>
+        <v>0.03312110900878906</v>
       </c>
     </row>
     <row r="149">
@@ -7463,7 +7463,7 @@
         <v>15</v>
       </c>
       <c r="O149" t="n">
-        <v>0.158099889755249</v>
+        <v>0.2554035186767578</v>
       </c>
     </row>
     <row r="150">
@@ -7510,7 +7510,7 @@
         <v>17</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1571784019470215</v>
+        <v>0.2010571956634521</v>
       </c>
     </row>
     <row r="151">
@@ -7557,7 +7557,7 @@
         <v>19</v>
       </c>
       <c r="O151" t="n">
-        <v>3.564172267913818</v>
+        <v>4.446112155914307</v>
       </c>
     </row>
     <row r="152">
@@ -7604,7 +7604,7 @@
         <v>18</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1001803874969482</v>
+        <v>0.106736421585083</v>
       </c>
     </row>
     <row r="153">
@@ -7651,7 +7651,7 @@
         <v>19</v>
       </c>
       <c r="O153" t="n">
-        <v>0.005000829696655273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -7698,7 +7698,7 @@
         <v>19</v>
       </c>
       <c r="O154" t="n">
-        <v>0.004567623138427734</v>
+        <v>0.004574060440063477</v>
       </c>
     </row>
     <row r="155">
@@ -7745,7 +7745,7 @@
         <v>15</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1144189834594727</v>
+        <v>0.1401519775390625</v>
       </c>
     </row>
     <row r="156">
@@ -7792,7 +7792,7 @@
         <v>16</v>
       </c>
       <c r="O156" t="n">
-        <v>0.002999544143676758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -7839,7 +7839,7 @@
         <v>17</v>
       </c>
       <c r="O157" t="n">
-        <v>0.01848721504211426</v>
+        <v>0.01747679710388184</v>
       </c>
     </row>
     <row r="158">
@@ -7886,7 +7886,7 @@
         <v>17</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1628503799438477</v>
+        <v>0.1935446262359619</v>
       </c>
     </row>
     <row r="159">
@@ -7933,7 +7933,7 @@
         <v>17</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1294338703155518</v>
+        <v>0.1466183662414551</v>
       </c>
     </row>
     <row r="160">
@@ -7980,7 +7980,7 @@
         <v>15</v>
       </c>
       <c r="O160" t="n">
-        <v>0.01716732978820801</v>
+        <v>0.004705429077148438</v>
       </c>
     </row>
     <row r="161">
@@ -8074,7 +8074,7 @@
         <v>17</v>
       </c>
       <c r="O162" t="n">
-        <v>0.004958391189575195</v>
+        <v>0.01831221580505371</v>
       </c>
     </row>
     <row r="163">
@@ -8121,7 +8121,7 @@
         <v>17</v>
       </c>
       <c r="O163" t="n">
-        <v>0.01151514053344727</v>
+        <v>0.007512092590332031</v>
       </c>
     </row>
     <row r="164">
@@ -8168,7 +8168,7 @@
         <v>17</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1330835819244385</v>
+        <v>0.1833932399749756</v>
       </c>
     </row>
     <row r="165">
@@ -8215,7 +8215,7 @@
         <v>16</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1164708137512207</v>
+        <v>0.120621919631958</v>
       </c>
     </row>
     <row r="166">
@@ -8262,7 +8262,7 @@
         <v>16</v>
       </c>
       <c r="O166" t="n">
-        <v>0.03560638427734375</v>
+        <v>0.0722966194152832</v>
       </c>
     </row>
     <row r="167">
@@ -8309,7 +8309,7 @@
         <v>16</v>
       </c>
       <c r="O167" t="n">
-        <v>0.09996533393859863</v>
+        <v>0.1333177089691162</v>
       </c>
     </row>
     <row r="168">
@@ -8403,7 +8403,7 @@
         <v>14</v>
       </c>
       <c r="O169" t="n">
-        <v>0.01596570014953613</v>
+        <v>0.01279473304748535</v>
       </c>
     </row>
     <row r="170">
@@ -8450,7 +8450,7 @@
         <v>15</v>
       </c>
       <c r="O170" t="n">
-        <v>0.004512548446655273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -8497,7 +8497,7 @@
         <v>16</v>
       </c>
       <c r="O171" t="n">
-        <v>0.01652765274047852</v>
+        <v>0.02595090866088867</v>
       </c>
     </row>
     <row r="172">
@@ -8544,7 +8544,7 @@
         <v>13</v>
       </c>
       <c r="O172" t="n">
-        <v>0.01482033729553223</v>
+        <v>0.02843761444091797</v>
       </c>
     </row>
     <row r="173">
@@ -8591,7 +8591,7 @@
         <v>10</v>
       </c>
       <c r="O173" t="n">
-        <v>0.01768660545349121</v>
+        <v>0.04254531860351562</v>
       </c>
     </row>
     <row r="174">
@@ -8638,7 +8638,7 @@
         <v>7</v>
       </c>
       <c r="O174" t="n">
-        <v>0.03649997711181641</v>
+        <v>0.05129647254943848</v>
       </c>
     </row>
     <row r="175">
@@ -8685,7 +8685,7 @@
         <v>6</v>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>0.001169204711914062</v>
       </c>
     </row>
     <row r="176">
@@ -8732,7 +8732,7 @@
         <v>6</v>
       </c>
       <c r="O176" t="n">
-        <v>0.02514791488647461</v>
+        <v>0.01341414451599121</v>
       </c>
     </row>
     <row r="177">
@@ -8779,7 +8779,7 @@
         <v>2</v>
       </c>
       <c r="O177" t="n">
-        <v>0</v>
+        <v>0.003011703491210938</v>
       </c>
     </row>
   </sheetData>
